--- a/Code/Results/Cases/Case_3_163/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_163/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.44920247598077</v>
+        <v>13.90601666960259</v>
       </c>
       <c r="C2">
-        <v>7.282966906124337</v>
+        <v>9.563708855824501</v>
       </c>
       <c r="D2">
-        <v>5.039959038427264</v>
+        <v>6.641770795019138</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.13516962715257</v>
+        <v>33.83845325315806</v>
       </c>
       <c r="G2">
-        <v>42.15166387220353</v>
+        <v>45.50837049108168</v>
       </c>
       <c r="H2">
-        <v>13.25108530817296</v>
+        <v>18.27211043341456</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.1590030991541</v>
+        <v>9.85959058875328</v>
       </c>
       <c r="L2">
-        <v>8.087123212508025</v>
+        <v>10.82934092272948</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.44215763395558</v>
+        <v>13.70895798143026</v>
       </c>
       <c r="C3">
-        <v>7.300585477670439</v>
+        <v>9.562569478288975</v>
       </c>
       <c r="D3">
-        <v>5.065959438177402</v>
+        <v>6.638967512032064</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>28.32327171806618</v>
+        <v>33.72730132999728</v>
       </c>
       <c r="G3">
-        <v>40.8815616493218</v>
+        <v>45.28612249149185</v>
       </c>
       <c r="H3">
-        <v>13.11805717129181</v>
+        <v>18.28076485178492</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.48476021666522</v>
+        <v>9.735651212971568</v>
       </c>
       <c r="L3">
-        <v>7.809515954804223</v>
+        <v>10.80667904982892</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.865114307443</v>
+        <v>13.59049906277789</v>
       </c>
       <c r="C4">
-        <v>7.311587429918373</v>
+        <v>9.561814289662362</v>
       </c>
       <c r="D4">
-        <v>5.081567502409735</v>
+        <v>6.637068113447858</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.83525972482111</v>
+        <v>33.66628472350207</v>
       </c>
       <c r="G4">
-        <v>40.11638217946481</v>
+        <v>45.15989683925439</v>
       </c>
       <c r="H4">
-        <v>13.04371602413739</v>
+        <v>18.28894047597919</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.04961484033957</v>
+        <v>9.661492602615105</v>
       </c>
       <c r="L4">
-        <v>7.639622784645231</v>
+        <v>10.79499181844893</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.62420731901113</v>
+        <v>13.54292857096887</v>
       </c>
       <c r="C5">
-        <v>7.316118451793348</v>
+        <v>9.5614925804722</v>
       </c>
       <c r="D5">
-        <v>5.087848557156836</v>
+        <v>6.636249367309471</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.63918885005563</v>
+        <v>33.64325221764523</v>
       </c>
       <c r="G5">
-        <v>39.80851182459264</v>
+        <v>45.11106573494369</v>
       </c>
       <c r="H5">
-        <v>13.01522251695406</v>
+        <v>18.29299130375599</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.866973075508364</v>
+        <v>9.631799136076832</v>
       </c>
       <c r="L5">
-        <v>7.570616989152322</v>
+        <v>10.79079240422311</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.58386213511097</v>
+        <v>13.53507382478496</v>
       </c>
       <c r="C6">
-        <v>7.316873741747211</v>
+        <v>9.561438318119007</v>
       </c>
       <c r="D6">
-        <v>5.088887016312651</v>
+        <v>6.636110716102428</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>27.60680509023959</v>
+        <v>33.63953871680248</v>
       </c>
       <c r="G6">
-        <v>39.75763621992522</v>
+        <v>45.10311570495834</v>
       </c>
       <c r="H6">
-        <v>13.0105986405944</v>
+        <v>18.29370736161548</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.836324814976207</v>
+        <v>9.626901487334223</v>
       </c>
       <c r="L6">
-        <v>7.559174998276941</v>
+        <v>10.79012919517788</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.86188844520557</v>
+        <v>13.58985458146373</v>
       </c>
       <c r="C7">
-        <v>7.31164834217385</v>
+        <v>9.561810007491905</v>
       </c>
       <c r="D7">
-        <v>5.081652519138942</v>
+        <v>6.6370572525559</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.83260390439072</v>
+        <v>33.66596666358942</v>
       </c>
       <c r="G7">
-        <v>40.11221380646911</v>
+        <v>45.15922769012164</v>
       </c>
       <c r="H7">
-        <v>13.04332451804057</v>
+        <v>18.28899219563061</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.04717318149214</v>
+        <v>9.661089962799339</v>
       </c>
       <c r="L7">
-        <v>7.638691109836222</v>
+        <v>10.79493289937301</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.10785222985922</v>
+        <v>13.83758371822487</v>
       </c>
       <c r="C8">
-        <v>7.289004387988869</v>
+        <v>9.563327550331737</v>
       </c>
       <c r="D8">
-        <v>5.049004279671243</v>
+        <v>6.640841247872626</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.85314242599014</v>
+        <v>33.79863623545864</v>
       </c>
       <c r="G8">
-        <v>41.71083959374114</v>
+        <v>45.4296360127069</v>
       </c>
       <c r="H8">
-        <v>13.20366800621387</v>
+        <v>18.27450031961035</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.93091361541138</v>
+        <v>9.816477056164942</v>
       </c>
       <c r="L8">
-        <v>7.991337960927468</v>
+        <v>10.82106688703852</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.44351955439597</v>
+        <v>14.34060974372662</v>
       </c>
       <c r="C9">
-        <v>7.246000773605112</v>
+        <v>9.565861489405018</v>
       </c>
       <c r="D9">
-        <v>4.981657751649869</v>
+        <v>6.646844594124901</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.93114327944757</v>
+        <v>34.11547212460589</v>
       </c>
       <c r="G9">
-        <v>44.95165212188228</v>
+        <v>46.03949028960817</v>
       </c>
       <c r="H9">
-        <v>13.57823939636499</v>
+        <v>18.26880111034103</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.49654916911739</v>
+        <v>10.13484445608581</v>
       </c>
       <c r="L9">
-        <v>8.683918584827968</v>
+        <v>10.88982799609521</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.00193186035091</v>
+        <v>14.71679611358918</v>
       </c>
       <c r="C10">
-        <v>7.215181244508995</v>
+        <v>9.567452863660282</v>
       </c>
       <c r="D10">
-        <v>4.929403904534349</v>
+        <v>6.650386913190556</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>32.49691593047196</v>
+        <v>34.38172584732997</v>
       </c>
       <c r="G10">
-        <v>47.38522485786593</v>
+        <v>46.53364155017353</v>
       </c>
       <c r="H10">
-        <v>13.8926704462848</v>
+        <v>18.27847160212501</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.54629031065051</v>
+        <v>10.37470316794128</v>
       </c>
       <c r="L10">
-        <v>9.189536138691375</v>
+        <v>10.95077914278526</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.67787961166965</v>
+        <v>14.88855313397358</v>
       </c>
       <c r="C11">
-        <v>7.201313699855357</v>
+        <v>9.568117971515289</v>
       </c>
       <c r="D11">
-        <v>4.904846769915199</v>
+        <v>6.651808945624849</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>33.21648053862371</v>
+        <v>34.50985038144575</v>
       </c>
       <c r="G11">
-        <v>48.50191003427792</v>
+        <v>46.76786484084246</v>
       </c>
       <c r="H11">
-        <v>14.0447833056305</v>
+        <v>18.28587700969348</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.00253685280763</v>
+        <v>10.48461028881231</v>
       </c>
       <c r="L11">
-        <v>9.418252174678949</v>
+        <v>10.98071092795414</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.92920772259269</v>
+        <v>14.95361693779715</v>
       </c>
       <c r="C12">
-        <v>7.196083305639917</v>
+        <v>9.568361361313785</v>
       </c>
       <c r="D12">
-        <v>4.89541771801448</v>
+        <v>6.652320127576251</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>33.48993864297016</v>
+        <v>34.55934924851679</v>
       </c>
       <c r="G12">
-        <v>48.92606034476209</v>
+        <v>46.85786112468602</v>
       </c>
       <c r="H12">
-        <v>14.10373577582187</v>
+        <v>18.28911279264847</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.1722979435945</v>
+        <v>10.52630196869925</v>
       </c>
       <c r="L12">
-        <v>9.504639634092394</v>
+        <v>10.99235638683939</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.87528428052785</v>
+        <v>14.93960430313955</v>
       </c>
       <c r="C13">
-        <v>7.197208846938774</v>
+        <v>9.568309319976699</v>
       </c>
       <c r="D13">
-        <v>4.897454488316442</v>
+        <v>6.652211251254056</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>33.43100204330842</v>
+        <v>34.54864559422903</v>
       </c>
       <c r="G13">
-        <v>48.83465584985166</v>
+        <v>46.83842185922886</v>
       </c>
       <c r="H13">
-        <v>14.09097848647133</v>
+        <v>18.28839673219775</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.13586979997243</v>
+        <v>10.51732036584138</v>
       </c>
       <c r="L13">
-        <v>9.486044894712276</v>
+        <v>10.98983460158447</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.6986488677925</v>
+        <v>14.89390588632661</v>
       </c>
       <c r="C14">
-        <v>7.200882977443439</v>
+        <v>9.568138165210648</v>
       </c>
       <c r="D14">
-        <v>4.904073738627506</v>
+        <v>6.651851548656946</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>33.23895888058139</v>
+        <v>34.51390318157036</v>
       </c>
       <c r="G14">
-        <v>48.53677975845167</v>
+        <v>46.77524314082586</v>
       </c>
       <c r="H14">
-        <v>14.04960602310465</v>
+        <v>18.28613457664965</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.01656319237614</v>
+        <v>10.48803907803586</v>
       </c>
       <c r="L14">
-        <v>9.425363946662053</v>
+        <v>10.98166281166905</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.58985371183358</v>
+        <v>14.86591533980929</v>
       </c>
       <c r="C15">
-        <v>7.203136189749497</v>
+        <v>9.568032224257541</v>
       </c>
       <c r="D15">
-        <v>4.908110795347639</v>
+        <v>6.65162766149556</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>33.12145216195096</v>
+        <v>34.49274937995921</v>
       </c>
       <c r="G15">
-        <v>48.35448739692461</v>
+        <v>46.73671209698684</v>
       </c>
       <c r="H15">
-        <v>14.02444147673526</v>
+        <v>18.28480510970791</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.94309418155618</v>
+        <v>10.47011162000705</v>
       </c>
       <c r="L15">
-        <v>9.388165273544971</v>
+        <v>10.97669765942228</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.95710213290875</v>
+        <v>14.705578242918</v>
       </c>
       <c r="C16">
-        <v>7.21609050154008</v>
+        <v>9.567408212494598</v>
       </c>
       <c r="D16">
-        <v>4.93099155108947</v>
+        <v>6.650290162415811</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>32.45003038362648</v>
+        <v>34.37349134246157</v>
       </c>
       <c r="G16">
-        <v>47.31243112005524</v>
+        <v>46.51851963273438</v>
       </c>
       <c r="H16">
-        <v>13.88291598902432</v>
+        <v>18.27804807391743</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.51604939361823</v>
+        <v>10.36753285487621</v>
       </c>
       <c r="L16">
-        <v>9.17455961926531</v>
+        <v>10.94886688459751</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.56055379607781</v>
+        <v>14.60732912446157</v>
       </c>
       <c r="C17">
-        <v>7.224075850737588</v>
+        <v>9.567010326443045</v>
       </c>
       <c r="D17">
-        <v>4.944815290165656</v>
+        <v>6.649421087815398</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>32.03993982679555</v>
+        <v>34.30210621116475</v>
       </c>
       <c r="G17">
-        <v>46.67554540013925</v>
+        <v>46.38704281355071</v>
       </c>
       <c r="H17">
-        <v>13.79845106648381</v>
+        <v>18.27467235000528</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.24865325522575</v>
+        <v>10.30477741587892</v>
       </c>
       <c r="L17">
-        <v>9.043158875932427</v>
+        <v>10.93235410500508</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.32935860060069</v>
+        <v>14.55088185276389</v>
       </c>
       <c r="C18">
-        <v>7.228683208422454</v>
+        <v>9.566775937596427</v>
       </c>
       <c r="D18">
-        <v>4.952693386651448</v>
+        <v>6.648903397559754</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>31.80475510291175</v>
+        <v>34.26170834783186</v>
       </c>
       <c r="G18">
-        <v>46.31013606481248</v>
+        <v>46.3123120391528</v>
       </c>
       <c r="H18">
-        <v>13.75072059593833</v>
+        <v>18.27301374804433</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.09284693001201</v>
+        <v>10.26875936951054</v>
       </c>
       <c r="L18">
-        <v>8.967460504323597</v>
+        <v>10.92306431161944</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.25054249999537</v>
+        <v>14.53178267596033</v>
       </c>
       <c r="C19">
-        <v>7.230245685142729</v>
+        <v>9.566695627330937</v>
       </c>
       <c r="D19">
-        <v>4.95534872883892</v>
+        <v>6.648725058085045</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>31.72524656237151</v>
+        <v>34.24814462246684</v>
       </c>
       <c r="G19">
-        <v>46.1865749948407</v>
+        <v>46.28716418796017</v>
       </c>
       <c r="H19">
-        <v>13.73470477949534</v>
+        <v>18.27250080343671</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.03974743085625</v>
+        <v>10.25657883229374</v>
       </c>
       <c r="L19">
-        <v>8.941811006880112</v>
+        <v>10.91995483657203</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.60308829847099</v>
+        <v>14.61778188044557</v>
       </c>
       <c r="C20">
-        <v>7.223224314274901</v>
+        <v>9.567053255085657</v>
       </c>
       <c r="D20">
-        <v>4.943351395862716</v>
+        <v>6.649515447306935</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>32.08352403279869</v>
+        <v>34.30963705687006</v>
       </c>
       <c r="G20">
-        <v>46.74324962821375</v>
+        <v>46.40094689940265</v>
       </c>
       <c r="H20">
-        <v>13.80735405100547</v>
+        <v>18.27500241434391</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.27732541666325</v>
+        <v>10.31145015379808</v>
       </c>
       <c r="L20">
-        <v>9.057159445316138</v>
+        <v>10.93409044240739</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.75065599313751</v>
+        <v>14.90732851673239</v>
       </c>
       <c r="C21">
-        <v>7.199803234816837</v>
+        <v>9.568188667551624</v>
       </c>
       <c r="D21">
-        <v>4.90213316777901</v>
+        <v>6.651957943840508</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>33.29534059546405</v>
+        <v>34.52408146776609</v>
       </c>
       <c r="G21">
-        <v>48.62423883603657</v>
+        <v>46.79376540607552</v>
       </c>
       <c r="H21">
-        <v>14.06172108834583</v>
+        <v>18.28678732281528</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.0516876632742</v>
+        <v>10.49663807180932</v>
       </c>
       <c r="L21">
-        <v>9.443193679442297</v>
+        <v>10.98405467643009</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.47367432261711</v>
+        <v>15.09666915468084</v>
       </c>
       <c r="C22">
-        <v>7.18461795120686</v>
+        <v>9.568881337798645</v>
       </c>
       <c r="D22">
-        <v>4.874429209823088</v>
+        <v>6.653395033847621</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>34.09300179812914</v>
+        <v>34.66993723999553</v>
       </c>
       <c r="G22">
-        <v>49.8610598258439</v>
+        <v>47.05805086384962</v>
       </c>
       <c r="H22">
-        <v>14.23586028322726</v>
+        <v>18.2970041062758</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.5402658474793</v>
+        <v>10.61807131797877</v>
       </c>
       <c r="L22">
-        <v>9.694184825695713</v>
+        <v>11.01851845949242</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.09021837221067</v>
+        <v>14.99562655305525</v>
       </c>
       <c r="C23">
-        <v>7.192711762035489</v>
+        <v>9.568516169924743</v>
       </c>
       <c r="D23">
-        <v>4.889291303152085</v>
+        <v>6.652642625646513</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>33.66677245437197</v>
+        <v>34.5915784966024</v>
       </c>
       <c r="G23">
-        <v>49.20027992606208</v>
+        <v>46.91632428884689</v>
       </c>
       <c r="H23">
-        <v>14.14218075128336</v>
+        <v>18.29132144754739</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.28108571334352</v>
+        <v>10.55323694095004</v>
       </c>
       <c r="L23">
-        <v>9.560354516494856</v>
+        <v>10.99996107117756</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.58386846946587</v>
+        <v>14.61305606764371</v>
       </c>
       <c r="C24">
-        <v>7.223609242520586</v>
+        <v>9.567033864609968</v>
       </c>
       <c r="D24">
-        <v>4.944013437261745</v>
+        <v>6.64947284356478</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.06381779512894</v>
+        <v>34.3062303584098</v>
       </c>
       <c r="G24">
-        <v>46.71263821867745</v>
+        <v>46.39465818839529</v>
       </c>
       <c r="H24">
-        <v>13.80332643127525</v>
+        <v>18.27485231326141</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.26436920478876</v>
+        <v>10.3084332160941</v>
       </c>
       <c r="L24">
-        <v>9.050830265693849</v>
+        <v>10.93330480955018</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.83972233819624</v>
+        <v>14.20308610811449</v>
       </c>
       <c r="C25">
-        <v>7.257492805494708</v>
+        <v>9.565223403902193</v>
       </c>
       <c r="D25">
-        <v>5.000306170913175</v>
+        <v>6.645372707675763</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.36163285701943</v>
+        <v>34.02379541384769</v>
       </c>
       <c r="G25">
-        <v>44.06494313795197</v>
+        <v>45.86622496038454</v>
       </c>
       <c r="H25">
-        <v>13.4702015970811</v>
+        <v>18.26790893713802</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.09080391411845</v>
+        <v>10.04749997677295</v>
       </c>
       <c r="L25">
-        <v>8.496881510140531</v>
+        <v>10.86937470185336</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_163/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_163/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.90601666960259</v>
+        <v>14.44920247598079</v>
       </c>
       <c r="C2">
-        <v>9.563708855824501</v>
+        <v>7.282966906124338</v>
       </c>
       <c r="D2">
-        <v>6.641770795019138</v>
+        <v>5.039959038427268</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>33.83845325315806</v>
+        <v>29.1351696271525</v>
       </c>
       <c r="G2">
-        <v>45.50837049108168</v>
+        <v>42.15166387220335</v>
       </c>
       <c r="H2">
-        <v>18.27211043341456</v>
+        <v>13.25108530817299</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.85959058875328</v>
+        <v>11.1590030991541</v>
       </c>
       <c r="L2">
-        <v>10.82934092272948</v>
+        <v>8.087123212508066</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.70895798143026</v>
+        <v>13.44215763395556</v>
       </c>
       <c r="C3">
-        <v>9.562569478288975</v>
+        <v>7.30058547767017</v>
       </c>
       <c r="D3">
-        <v>6.638967512032064</v>
+        <v>5.065959438177535</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>33.72730132999728</v>
+        <v>28.32327171806607</v>
       </c>
       <c r="G3">
-        <v>45.28612249149185</v>
+        <v>40.88156164932158</v>
       </c>
       <c r="H3">
-        <v>18.28076485178492</v>
+        <v>13.1180571712918</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.735651212971568</v>
+        <v>10.48476021666526</v>
       </c>
       <c r="L3">
-        <v>10.80667904982892</v>
+        <v>7.809515954804239</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.59049906277789</v>
+        <v>12.865114307443</v>
       </c>
       <c r="C4">
-        <v>9.561814289662362</v>
+        <v>7.311587429918642</v>
       </c>
       <c r="D4">
-        <v>6.637068113447858</v>
+        <v>5.081567502409872</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.66628472350207</v>
+        <v>27.83525972482107</v>
       </c>
       <c r="G4">
-        <v>45.15989683925439</v>
+        <v>40.11638217946481</v>
       </c>
       <c r="H4">
-        <v>18.28894047597919</v>
+        <v>13.04371602413737</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.661492602615105</v>
+        <v>10.04961484033955</v>
       </c>
       <c r="L4">
-        <v>10.79499181844893</v>
+        <v>7.639622784645194</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.54292857096887</v>
+        <v>12.62420731901115</v>
       </c>
       <c r="C5">
-        <v>9.5614925804722</v>
+        <v>7.316118451793349</v>
       </c>
       <c r="D5">
-        <v>6.636249367309471</v>
+        <v>5.0878485571567</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33.64325221764523</v>
+        <v>27.63918885005582</v>
       </c>
       <c r="G5">
-        <v>45.11106573494369</v>
+        <v>39.80851182459287</v>
       </c>
       <c r="H5">
-        <v>18.29299130375599</v>
+        <v>13.01522251695413</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.631799136076832</v>
+        <v>9.866973075508291</v>
       </c>
       <c r="L5">
-        <v>10.79079240422311</v>
+        <v>7.570616989152283</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.53507382478496</v>
+        <v>12.58386213511098</v>
       </c>
       <c r="C6">
-        <v>9.561438318119007</v>
+        <v>7.316873741747211</v>
       </c>
       <c r="D6">
-        <v>6.636110716102428</v>
+        <v>5.088887016312587</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33.63953871680248</v>
+        <v>27.60680509023968</v>
       </c>
       <c r="G6">
-        <v>45.10311570495834</v>
+        <v>39.75763621992522</v>
       </c>
       <c r="H6">
-        <v>18.29370736161548</v>
+        <v>13.01059864059452</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.626901487334223</v>
+        <v>9.836324814976255</v>
       </c>
       <c r="L6">
-        <v>10.79012919517788</v>
+        <v>7.559174998276958</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.58985458146373</v>
+        <v>12.86188844520559</v>
       </c>
       <c r="C7">
-        <v>9.561810007491905</v>
+        <v>7.311648342174117</v>
       </c>
       <c r="D7">
-        <v>6.6370572525559</v>
+        <v>5.081652519139211</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.66596666358942</v>
+        <v>27.83260390439081</v>
       </c>
       <c r="G7">
-        <v>45.15922769012164</v>
+        <v>40.11221380646926</v>
       </c>
       <c r="H7">
-        <v>18.28899219563061</v>
+        <v>13.04332451804069</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.661089962799339</v>
+        <v>10.04717318149211</v>
       </c>
       <c r="L7">
-        <v>10.79493289937301</v>
+        <v>7.63869110983622</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.83758371822487</v>
+        <v>14.1078522298592</v>
       </c>
       <c r="C8">
-        <v>9.563327550331737</v>
+        <v>7.289004387989271</v>
       </c>
       <c r="D8">
-        <v>6.640841247872626</v>
+        <v>5.049004279671243</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>33.79863623545864</v>
+        <v>28.8531424259902</v>
       </c>
       <c r="G8">
-        <v>45.4296360127069</v>
+        <v>41.71083959374123</v>
       </c>
       <c r="H8">
-        <v>18.27450031961035</v>
+        <v>13.20366800621385</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.816477056164942</v>
+        <v>10.93091361541145</v>
       </c>
       <c r="L8">
-        <v>10.82106688703852</v>
+        <v>7.991337960927472</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.34060974372662</v>
+        <v>16.44351955439591</v>
       </c>
       <c r="C9">
-        <v>9.565861489405018</v>
+        <v>7.246000773605113</v>
       </c>
       <c r="D9">
-        <v>6.646844594124901</v>
+        <v>4.981657751649937</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>34.11547212460589</v>
+        <v>30.93114327944769</v>
       </c>
       <c r="G9">
-        <v>46.03949028960817</v>
+        <v>44.95165212188241</v>
       </c>
       <c r="H9">
-        <v>18.26880111034103</v>
+        <v>13.57823939636503</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.13484445608581</v>
+        <v>12.49654916911733</v>
       </c>
       <c r="L9">
-        <v>10.88982799609521</v>
+        <v>8.683918584827998</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.71679611358918</v>
+        <v>18.00193186035086</v>
       </c>
       <c r="C10">
-        <v>9.567452863660282</v>
+        <v>7.215181244508996</v>
       </c>
       <c r="D10">
-        <v>6.650386913190556</v>
+        <v>4.929403904534349</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>34.38172584732997</v>
+        <v>32.49691593047185</v>
       </c>
       <c r="G10">
-        <v>46.53364155017353</v>
+        <v>47.3852248578658</v>
       </c>
       <c r="H10">
-        <v>18.27847160212501</v>
+        <v>13.89267044628467</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.37470316794128</v>
+        <v>13.54629031065046</v>
       </c>
       <c r="L10">
-        <v>10.95077914278526</v>
+        <v>9.189536138691382</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.88855313397358</v>
+        <v>18.67787961166972</v>
       </c>
       <c r="C11">
-        <v>9.568117971515289</v>
+        <v>7.201313699855086</v>
       </c>
       <c r="D11">
-        <v>6.651808945624849</v>
+        <v>4.904846769915129</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34.50985038144575</v>
+        <v>33.21648053862377</v>
       </c>
       <c r="G11">
-        <v>46.76786484084246</v>
+        <v>48.50191003427807</v>
       </c>
       <c r="H11">
-        <v>18.28587700969348</v>
+        <v>14.0447833056305</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.48461028881231</v>
+        <v>14.00253685280761</v>
       </c>
       <c r="L11">
-        <v>10.98071092795414</v>
+        <v>9.418252174678962</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.95361693779715</v>
+        <v>18.92920772259267</v>
       </c>
       <c r="C12">
-        <v>9.568361361313785</v>
+        <v>7.196083305639917</v>
       </c>
       <c r="D12">
-        <v>6.652320127576251</v>
+        <v>4.895417718014478</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>34.55934924851679</v>
+        <v>33.4899386429702</v>
       </c>
       <c r="G12">
-        <v>46.85786112468602</v>
+        <v>48.92606034476219</v>
       </c>
       <c r="H12">
-        <v>18.28911279264847</v>
+        <v>14.1037357758219</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.52630196869925</v>
+        <v>14.17229794359446</v>
       </c>
       <c r="L12">
-        <v>10.99235638683939</v>
+        <v>9.504639634092376</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.93960430313955</v>
+        <v>18.87528428052781</v>
       </c>
       <c r="C13">
-        <v>9.568309319976699</v>
+        <v>7.197208846938776</v>
       </c>
       <c r="D13">
-        <v>6.652211251254056</v>
+        <v>4.897454488316445</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>34.54864559422903</v>
+        <v>33.43100204330838</v>
       </c>
       <c r="G13">
-        <v>46.83842185922886</v>
+        <v>48.83465584985161</v>
       </c>
       <c r="H13">
-        <v>18.28839673219775</v>
+        <v>14.09097848647131</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.51732036584138</v>
+        <v>14.1358697999724</v>
       </c>
       <c r="L13">
-        <v>10.98983460158447</v>
+        <v>9.486044894712267</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.89390588632661</v>
+        <v>18.6986488677925</v>
       </c>
       <c r="C14">
-        <v>9.568138165210648</v>
+        <v>7.200882977443572</v>
       </c>
       <c r="D14">
-        <v>6.651851548656946</v>
+        <v>4.904073738627503</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.51390318157036</v>
+        <v>33.23895888058141</v>
       </c>
       <c r="G14">
-        <v>46.77524314082586</v>
+        <v>48.53677975845172</v>
       </c>
       <c r="H14">
-        <v>18.28613457664965</v>
+        <v>14.04960602310467</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.48803907803586</v>
+        <v>14.0165631923762</v>
       </c>
       <c r="L14">
-        <v>10.98166281166905</v>
+        <v>9.425363946662021</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.86591533980929</v>
+        <v>18.58985371183353</v>
       </c>
       <c r="C15">
-        <v>9.568032224257541</v>
+        <v>7.20313618974923</v>
       </c>
       <c r="D15">
-        <v>6.65162766149556</v>
+        <v>4.9081107953475</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>34.49274937995921</v>
+        <v>33.12145216195109</v>
       </c>
       <c r="G15">
-        <v>46.73671209698684</v>
+        <v>48.35448739692474</v>
       </c>
       <c r="H15">
-        <v>18.28480510970791</v>
+        <v>14.02444147673534</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.47011162000705</v>
+        <v>13.94309418155612</v>
       </c>
       <c r="L15">
-        <v>10.97669765942228</v>
+        <v>9.388165273544987</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.705578242918</v>
+        <v>17.95710213290873</v>
       </c>
       <c r="C16">
-        <v>9.567408212494598</v>
+        <v>7.216090501540213</v>
       </c>
       <c r="D16">
-        <v>6.650290162415811</v>
+        <v>4.930991551089535</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>34.37349134246157</v>
+        <v>32.45003038362636</v>
       </c>
       <c r="G16">
-        <v>46.51851963273438</v>
+        <v>47.31243112005522</v>
       </c>
       <c r="H16">
-        <v>18.27804807391743</v>
+        <v>13.88291598902424</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.36753285487621</v>
+        <v>13.51604939361822</v>
       </c>
       <c r="L16">
-        <v>10.94886688459751</v>
+        <v>9.174559619265303</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.60732912446157</v>
+        <v>17.56055379607781</v>
       </c>
       <c r="C17">
-        <v>9.567010326443045</v>
+        <v>7.224075850737588</v>
       </c>
       <c r="D17">
-        <v>6.649421087815398</v>
+        <v>4.944815290165721</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>34.30210621116475</v>
+        <v>32.03993982679562</v>
       </c>
       <c r="G17">
-        <v>46.38704281355071</v>
+        <v>46.67554540013927</v>
       </c>
       <c r="H17">
-        <v>18.27467235000528</v>
+        <v>13.79845106648389</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.30477741587892</v>
+        <v>13.24865325522573</v>
       </c>
       <c r="L17">
-        <v>10.93235410500508</v>
+        <v>9.043158875932408</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.55088185276389</v>
+        <v>17.32935860060071</v>
       </c>
       <c r="C18">
-        <v>9.566775937596427</v>
+        <v>7.228683208422454</v>
       </c>
       <c r="D18">
-        <v>6.648903397559754</v>
+        <v>4.952693386651648</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>34.26170834783186</v>
+        <v>31.80475510291163</v>
       </c>
       <c r="G18">
-        <v>46.3123120391528</v>
+        <v>46.31013606481242</v>
       </c>
       <c r="H18">
-        <v>18.27301374804433</v>
+        <v>13.75072059593825</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.26875936951054</v>
+        <v>13.09284693001205</v>
       </c>
       <c r="L18">
-        <v>10.92306431161944</v>
+        <v>8.967460504323585</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.53178267596033</v>
+        <v>17.25054249999542</v>
       </c>
       <c r="C19">
-        <v>9.566695627330937</v>
+        <v>7.230245685142597</v>
       </c>
       <c r="D19">
-        <v>6.648725058085045</v>
+        <v>4.955348728838786</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>34.24814462246684</v>
+        <v>31.72524656237151</v>
       </c>
       <c r="G19">
-        <v>46.28716418796017</v>
+        <v>46.18657499484065</v>
       </c>
       <c r="H19">
-        <v>18.27250080343671</v>
+        <v>13.73470477949533</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.25657883229374</v>
+        <v>13.03974743085626</v>
       </c>
       <c r="L19">
-        <v>10.91995483657203</v>
+        <v>8.941811006880092</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.61778188044557</v>
+        <v>17.60308829847106</v>
       </c>
       <c r="C20">
-        <v>9.567053255085657</v>
+        <v>7.223224314274766</v>
       </c>
       <c r="D20">
-        <v>6.649515447306935</v>
+        <v>4.943351395862782</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>34.30963705687006</v>
+        <v>32.08352403279869</v>
       </c>
       <c r="G20">
-        <v>46.40094689940265</v>
+        <v>46.74324962821368</v>
       </c>
       <c r="H20">
-        <v>18.27500241434391</v>
+        <v>13.8073540510055</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.31145015379808</v>
+        <v>13.27732541666327</v>
       </c>
       <c r="L20">
-        <v>10.93409044240739</v>
+        <v>9.057159445316163</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.90732851673239</v>
+        <v>18.75065599313756</v>
       </c>
       <c r="C21">
-        <v>9.568188667551624</v>
+        <v>7.199803234816702</v>
       </c>
       <c r="D21">
-        <v>6.651957943840508</v>
+        <v>4.902133167779073</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>34.52408146776609</v>
+        <v>33.295340595464</v>
       </c>
       <c r="G21">
-        <v>46.79376540607552</v>
+        <v>48.62423883603663</v>
       </c>
       <c r="H21">
-        <v>18.28678732281528</v>
+        <v>14.0617210883458</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.49663807180932</v>
+        <v>14.05168766327423</v>
       </c>
       <c r="L21">
-        <v>10.98405467643009</v>
+        <v>9.443193679442297</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.09666915468084</v>
+        <v>19.47367432261709</v>
       </c>
       <c r="C22">
-        <v>9.568881337798645</v>
+        <v>7.184617951207131</v>
       </c>
       <c r="D22">
-        <v>6.653395033847621</v>
+        <v>4.874429209823157</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>34.66993723999553</v>
+        <v>34.09300179812904</v>
       </c>
       <c r="G22">
-        <v>47.05805086384962</v>
+        <v>49.86105982584375</v>
       </c>
       <c r="H22">
-        <v>18.2970041062758</v>
+        <v>14.23586028322724</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.61807131797877</v>
+        <v>14.5402658474793</v>
       </c>
       <c r="L22">
-        <v>11.01851845949242</v>
+        <v>9.694184825695697</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.99562655305525</v>
+        <v>19.09021837221066</v>
       </c>
       <c r="C23">
-        <v>9.568516169924743</v>
+        <v>7.192711762035761</v>
       </c>
       <c r="D23">
-        <v>6.652642625646513</v>
+        <v>4.889291303152085</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>34.5915784966024</v>
+        <v>33.66677245437188</v>
       </c>
       <c r="G23">
-        <v>46.91632428884689</v>
+        <v>49.20027992606192</v>
       </c>
       <c r="H23">
-        <v>18.29132144754739</v>
+        <v>14.14218075128331</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.55323694095004</v>
+        <v>14.28108571334354</v>
       </c>
       <c r="L23">
-        <v>10.99996107117756</v>
+        <v>9.560354516494877</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.61305606764371</v>
+        <v>17.58386846946595</v>
       </c>
       <c r="C24">
-        <v>9.567033864609968</v>
+        <v>7.223609242520719</v>
       </c>
       <c r="D24">
-        <v>6.64947284356478</v>
+        <v>4.944013437261611</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>34.3062303584098</v>
+        <v>32.06381779512873</v>
       </c>
       <c r="G24">
-        <v>46.39465818839529</v>
+        <v>46.71263821867726</v>
       </c>
       <c r="H24">
-        <v>18.27485231326141</v>
+        <v>13.80332643127506</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.3084332160941</v>
+        <v>13.2643692047889</v>
       </c>
       <c r="L24">
-        <v>10.93330480955018</v>
+        <v>9.050830265693815</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.20308610811449</v>
+        <v>15.83972233819629</v>
       </c>
       <c r="C25">
-        <v>9.565223403902193</v>
+        <v>7.257492805494575</v>
       </c>
       <c r="D25">
-        <v>6.645372707675763</v>
+        <v>5.000306170913173</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>34.02379541384769</v>
+        <v>30.36163285701936</v>
       </c>
       <c r="G25">
-        <v>45.86622496038454</v>
+        <v>44.06494313795188</v>
       </c>
       <c r="H25">
-        <v>18.26790893713802</v>
+        <v>13.470201597081</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.04749997677295</v>
+        <v>12.09080391411846</v>
       </c>
       <c r="L25">
-        <v>10.86937470185336</v>
+        <v>8.496881510140533</v>
       </c>
       <c r="M25">
         <v>0</v>
